--- a/templates/community/HHU CMML/20240710_study_sheet_phototrophic_microbial_cell_culture.xlsx
+++ b/templates/community/HHU CMML/20240710_study_sheet_phototrophic_microbial_cell_culture.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B74E3-E990-4427-87AA-2DE79D91263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7EF58-702F-44A7-A92C-AEA642D00F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>study sheet phototrophic microbial cell culture</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:02000008</t>
+  </si>
+  <si>
+    <t>ENVO</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +878,9 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -882,6 +891,9 @@
       </c>
       <c r="C15" t="s">
         <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
